--- a/C2 - Graze-Out.xlsx
+++ b/C2 - Graze-Out.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooners-my.sharepoint.com/personal/danala_ou_edu/Documents/DISC OU/USDA Work/Coding Competition/Datasets/Challenge-2/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sooners-my.sharepoint.com/personal/paul_o_gariy-1_ou_edu/Documents/AgriAI/Challenge-2/Challenge-2/Repo/AgriAIChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{A143BA75-6791-4F7C-BE09-826A25248E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B672965-DB2C-4624-BDA2-BF43B6B5123F}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{A143BA75-6791-4F7C-BE09-826A25248E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A38A6C-6264-4A2C-810B-A78281B99261}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C32BDE48-141D-491C-BE07-24AC77CCE1EA}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11210" activeTab="6" xr2:uid="{C32BDE48-141D-491C-BE07-24AC77CCE1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="16">
   <si>
     <t>EVI</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>NEE</t>
-  </si>
-  <si>
-    <t>S2</t>
   </si>
 </sst>
 </file>
@@ -489,13 +486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922EE4A6-2CCC-4C74-B8F4-5EBC0FB9101E}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -542,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.3090947549999998</v>
       </c>
@@ -589,7 +586,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.7831424105</v>
       </c>
@@ -636,7 +633,7 @@
         <v>0.50170000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.7239138605000002</v>
       </c>
@@ -683,7 +680,7 @@
         <v>0.52439999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.0165592999999999</v>
       </c>
@@ -730,7 +727,7 @@
         <v>0.54709999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.951202399999999</v>
       </c>
@@ -777,7 +774,7 @@
         <v>0.56979999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.1862921913000002</v>
       </c>
@@ -824,7 +821,7 @@
         <v>0.59250000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.0601170130000011</v>
       </c>
@@ -871,7 +868,7 @@
         <v>0.61519999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.9482677999999991</v>
       </c>
@@ -918,7 +915,7 @@
         <v>0.63789999999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.0617901000000001</v>
       </c>
@@ -965,7 +962,7 @@
         <v>0.66059999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.4514855838999989</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v>0.68330000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.8899502753999999</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.2585761999999998</v>
       </c>
@@ -1106,7 +1103,7 @@
         <v>0.71279999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.0128801611</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>0.71960000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.016632299999999</v>
       </c>
@@ -1200,7 +1197,7 @@
         <v>0.72639999999999993</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.425593464799999</v>
       </c>
@@ -1247,7 +1244,7 @@
         <v>0.73319999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.95755559999999984</v>
       </c>
@@ -1294,7 +1291,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.2620010926</v>
       </c>
@@ -1341,7 +1338,7 @@
         <v>0.74680000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.64169675450000019</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.58837263429999986</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>0.76039999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.7306621</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>0.76719999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.2531722827999989</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.5848738</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>0.78949999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.59802234370000007</v>
       </c>
@@ -1623,7 +1620,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.0701676192</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>0.82050000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.0018086307</v>
       </c>
@@ -1717,7 +1714,7 @@
         <v>0.83600000000000008</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.2373624830000001</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>0.85150000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.5201958</v>
       </c>
@@ -1811,7 +1808,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.9500823537</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>0.88250000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.6298662403999999</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>0.89800000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.2637541000000001</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>0.86149999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.81794876480000001</v>
       </c>
@@ -1999,7 +1996,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.64955097780000026</v>
       </c>
@@ -2046,7 +2043,7 @@
         <v>0.82279999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.0029903182</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>0.8206</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.89596001040000006</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>0.81839999999999991</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.65053894519999977</v>
       </c>
@@ -2187,7 +2184,7 @@
         <v>0.81619999999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.7583320857</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.1260355265999999</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>0.82866666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.6754947106000001</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>0.84333333333333327</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.40543442260000012</v>
       </c>
@@ -2375,7 +2372,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.0152877376</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>0.87266666666666659</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.7391323000000003</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>0.88733333333333331</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.43922695480000001</v>
       </c>
@@ -2516,7 +2513,7 @@
         <v>0.90199999999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.59825689999999987</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.74995434559999974</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>0.93133333333333335</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.63940140089999986</v>
       </c>
@@ -2657,7 +2654,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.29197145699999999</v>
       </c>
@@ -2704,7 +2701,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.80125712499999968</v>
       </c>
@@ -2751,7 +2748,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.50931494099999997</v>
       </c>
@@ -2798,7 +2795,7 @@
         <v>0.57792307692307687</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.35683290599999989</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>0.58584615384615379</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.65478014300000009</v>
       </c>
@@ -2892,7 +2889,7 @@
         <v>0.59376923076923072</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.864328604</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>0.60169230769230764</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.4287779365</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>0.60961538461538456</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.59254756999999991</v>
       </c>
@@ -3033,7 +3030,7 @@
         <v>0.61753846153846159</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.0693499900000001</v>
       </c>
@@ -3080,7 +3077,7 @@
         <v>0.62546153846153851</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.2801907800000001</v>
       </c>
@@ -3127,7 +3124,7 @@
         <v>0.63338461538461543</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.92444207</v>
       </c>
@@ -3174,7 +3171,7 @@
         <v>0.64130769230769236</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1.204456199999999</v>
       </c>
@@ -3221,7 +3218,7 @@
         <v>0.64923076923076928</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.51500550999999972</v>
       </c>
@@ -3268,7 +3265,7 @@
         <v>0.6571538461538462</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.39006528000000001</v>
       </c>
@@ -3315,7 +3312,7 @@
         <v>0.66507692307692312</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.4430657838999999</v>
       </c>
@@ -3362,7 +3359,7 @@
         <v>0.67300000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.3614686149999999</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>0.65916666666666668</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.71280776</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>0.64533333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1.3375862999999999</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>0.63150000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.39191656000000002</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>0.6176666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1.53726977</v>
       </c>
@@ -3597,7 +3594,7 @@
         <v>0.60383333333333333</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.4649713</v>
       </c>
@@ -3644,7 +3641,7 @@
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.4692834199999999</v>
       </c>
@@ -3691,7 +3688,7 @@
         <v>0.57616666666666672</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.68941856</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>0.56233333333333335</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.7380380200000001</v>
       </c>
@@ -3785,7 +3782,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.37110644999999998</v>
       </c>
@@ -3832,7 +3829,7 @@
         <v>0.53466666666666662</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>3.3869204099999992</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1.511015612</v>
       </c>
@@ -3926,7 +3923,7 @@
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.6800562999999991</v>
       </c>
@@ -3973,7 +3970,7 @@
         <v>0.50419999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.78275593199999982</v>
       </c>
@@ -4020,7 +4017,7 @@
         <v>0.50139999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.65503257699999973</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.91951376700000009</v>
       </c>
@@ -4114,7 +4111,7 @@
         <v>0.49580000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.51462744299999996</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.66760106000000019</v>
       </c>
@@ -4208,7 +4205,7 @@
         <v>0.49020000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1.143562666</v>
       </c>
@@ -4255,7 +4252,7 @@
         <v>0.4874</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.95028003309999975</v>
       </c>
@@ -4302,7 +4299,7 @@
         <v>0.48459999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1.1626828259999999</v>
       </c>
@@ -4349,7 +4346,7 @@
         <v>0.48180000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.541102489</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.351384176</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>0.47489999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1.183331095</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>0.4708</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3.9400092899999999</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>0.4667</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1.4339740400000001</v>
       </c>
@@ -4584,7 +4581,7 @@
         <v>0.46260000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.84009349000000011</v>
       </c>
@@ -4631,7 +4628,7 @@
         <v>0.45850000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.6626377800000001</v>
       </c>
@@ -4678,7 +4675,7 @@
         <v>0.45440000000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>6.0794582500000001</v>
       </c>
@@ -4725,7 +4722,7 @@
         <v>0.45029999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3.7812116599999999</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>0.44619999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3.3190128900000011</v>
       </c>
@@ -4819,7 +4816,7 @@
         <v>0.44209999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2.536871326</v>
       </c>
@@ -4866,7 +4863,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5.5843773600000004</v>
       </c>
@@ -4913,7 +4910,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5.8919921695000008</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>0.64760000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2.0836200199999988</v>
       </c>
@@ -5007,7 +5004,7 @@
         <v>0.64219999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.71758269</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>0.63680000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3.003530249999999</v>
       </c>
@@ -5101,7 +5098,7 @@
         <v>0.63139999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5.4681219399999996</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5.8645645000000011</v>
       </c>
@@ -5195,7 +5192,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5.6737001600000001</v>
       </c>
@@ -5242,7 +5239,7 @@
         <v>0.45374999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>4.4181899500000013</v>
       </c>
@@ -5289,7 +5286,7 @@
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2.6108026599999992</v>
       </c>
@@ -5336,7 +5333,7 @@
         <v>0.50524999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>4.7230715299999986</v>
       </c>
@@ -5383,7 +5380,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1.16677944</v>
       </c>
@@ -5430,7 +5427,7 @@
         <v>0.5124545454545455</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>7.1152806029000004</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>0.49390909090909102</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>3.7352470640000002</v>
       </c>
@@ -5524,7 +5521,7 @@
         <v>0.47536363636363638</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>3.89153218</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>0.45681818181818179</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>4.1607211399999979</v>
       </c>
@@ -5618,7 +5615,7 @@
         <v>0.43827272727272731</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>4.6915070600000002</v>
       </c>
@@ -5665,7 +5662,7 @@
         <v>0.41972727272727273</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4.6364271000000006</v>
       </c>
@@ -5712,7 +5709,7 @@
         <v>0.40118181818181819</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5.2982815999999993</v>
       </c>
@@ -5759,7 +5756,7 @@
         <v>0.38263636363636372</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5.1658683599999984</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0.36409090909090908</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2.4144735399999999</v>
       </c>
@@ -5853,7 +5850,7 @@
         <v>0.3455454545454546</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5.3048623309999998</v>
       </c>
@@ -5907,15 +5904,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C76F0C-9F7F-4663-A568-4B4C4A63C4F5}">
-  <dimension ref="A1:S115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="J97" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5962,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.4706941206199988</v>
       </c>
@@ -6009,7 +6006,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.6462090696299989</v>
       </c>
@@ -6056,7 +6053,7 @@
         <v>0.53570000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.1589752163</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>0.55840000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.1612306999999999</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>0.58109999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.80156959588</v>
       </c>
@@ -6197,7 +6194,7 @@
         <v>0.6038</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.3235403541599999</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>0.62650000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.136797910979999</v>
       </c>
@@ -6291,7 +6288,7 @@
         <v>0.6492</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.1932558000000002</v>
       </c>
@@ -6338,7 +6335,7 @@
         <v>0.67189999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.1352622180099998</v>
       </c>
@@ -6385,7 +6382,7 @@
         <v>0.6946</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.5681115226999989</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>0.71730000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.087209144570001</v>
       </c>
@@ -6479,7 +6476,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.2663288000000001</v>
       </c>
@@ -6526,7 +6523,7 @@
         <v>0.74909999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.0932954886899999</v>
       </c>
@@ -6573,7 +6570,7 @@
         <v>0.75819999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.0365980394399998</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>0.76729999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.56809183073</v>
       </c>
@@ -6666,11 +6663,8 @@
       <c r="O16">
         <v>0.77639999999999998</v>
       </c>
-      <c r="S16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.97045873251999992</v>
       </c>
@@ -6717,7 +6711,7 @@
         <v>0.78549999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.1221515506499999</v>
       </c>
@@ -6764,7 +6758,7 @@
         <v>0.79459999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.57587394586999996</v>
       </c>
@@ -6811,7 +6805,7 @@
         <v>0.80369999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.56325000476999987</v>
       </c>
@@ -6858,7 +6852,7 @@
         <v>0.81279999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.8028899227899999</v>
       </c>
@@ -6905,7 +6899,7 @@
         <v>0.82189999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.376162541909999</v>
       </c>
@@ -6952,7 +6946,7 @@
         <v>0.83099999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.8186517017299999</v>
       </c>
@@ -6999,7 +6993,7 @@
         <v>0.84612500000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.0327247241899999</v>
       </c>
@@ -7046,7 +7040,7 @@
         <v>0.86124999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.4526319596199999</v>
       </c>
@@ -7093,7 +7087,7 @@
         <v>0.8763749999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.3334944426799999</v>
       </c>
@@ -7140,7 +7134,7 @@
         <v>0.89149999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.4757285529899999</v>
       </c>
@@ -7187,7 +7181,7 @@
         <v>0.90662500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.8889452471699999</v>
       </c>
@@ -7234,7 +7228,7 @@
         <v>0.92174999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2.0897846743600001</v>
       </c>
@@ -7281,7 +7275,7 @@
         <v>0.9368749999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2.2049928991400001</v>
       </c>
@@ -7328,7 +7322,7 @@
         <v>0.95199999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.24665956882</v>
       </c>
@@ -7375,7 +7369,7 @@
         <v>0.91349999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.0167193617700001</v>
       </c>
@@ -7422,7 +7416,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.93863331014999984</v>
       </c>
@@ -7469,7 +7463,7 @@
         <v>0.87239999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1.2499096025500001</v>
       </c>
@@ -7516,7 +7510,7 @@
         <v>0.86980000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.18199463655</v>
       </c>
@@ -7563,7 +7557,7 @@
         <v>0.86719999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.72746663719999982</v>
       </c>
@@ -7610,7 +7604,7 @@
         <v>0.86460000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.86612489456</v>
       </c>
@@ -7657,7 +7651,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.38219601892</v>
       </c>
@@ -7704,7 +7698,7 @@
         <v>0.87755555555555553</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.77400419778999996</v>
       </c>
@@ -7751,7 +7745,7 @@
         <v>0.89311111111111108</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.65355189245000012</v>
       </c>
@@ -7798,7 +7792,7 @@
         <v>0.90866666666666662</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.3659905269999999</v>
       </c>
@@ -7845,7 +7839,7 @@
         <v>0.92422222222222217</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.90257959272999999</v>
       </c>
@@ -7892,7 +7886,7 @@
         <v>0.93977777777777782</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.59345423729999991</v>
       </c>
@@ -7939,7 +7933,7 @@
         <v>0.95533333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.66707869097999994</v>
       </c>
@@ -7986,7 +7980,7 @@
         <v>0.97088888888888891</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.0049973108500001</v>
       </c>
@@ -8033,7 +8027,7 @@
         <v>0.98644444444444446</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.95367476450999988</v>
       </c>
@@ -8080,7 +8074,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.66791416357000011</v>
       </c>
@@ -8127,7 +8121,7 @@
         <v>0.67700000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.7051972206999999</v>
       </c>
@@ -8174,7 +8168,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.52433782999999989</v>
       </c>
@@ -8221,7 +8215,7 @@
         <v>0.6611538461538462</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.42239786694999998</v>
       </c>
@@ -8268,7 +8262,7 @@
         <v>0.67130769230769238</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.81087273682999994</v>
       </c>
@@ -8315,7 +8309,7 @@
         <v>0.68146153846153845</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.9943540818900001</v>
       </c>
@@ -8362,7 +8356,7 @@
         <v>0.69161538461538463</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.3180839506900011</v>
       </c>
@@ -8409,7 +8403,7 @@
         <v>0.70176923076923081</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.58714642409999995</v>
       </c>
@@ -8456,7 +8450,7 @@
         <v>0.71192307692307699</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.70807023424999993</v>
       </c>
@@ -8503,7 +8497,7 @@
         <v>0.72207692307692306</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1.83520578398</v>
       </c>
@@ -8550,7 +8544,7 @@
         <v>0.73223076923076924</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2.4416706287799999</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>0.74238461538461542</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1.53547692212</v>
       </c>
@@ -8644,7 +8638,7 @@
         <v>0.7525384615384616</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.0323865268700001</v>
       </c>
@@ -8691,7 +8685,7 @@
         <v>0.76269230769230767</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.95654166795999984</v>
       </c>
@@ -8738,7 +8732,7 @@
         <v>0.77284615384615385</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2.3103080266800009</v>
       </c>
@@ -8785,7 +8779,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2.7250679868499992</v>
       </c>
@@ -8832,7 +8826,7 @@
         <v>0.7685833333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2.0681982305299988</v>
       </c>
@@ -8879,7 +8873,7 @@
         <v>0.75416666666666665</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.93744840480999969</v>
       </c>
@@ -8926,7 +8920,7 @@
         <v>0.73975000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.55730630462000008</v>
       </c>
@@ -8973,7 +8967,7 @@
         <v>0.72533333333333339</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1.7191461404899999</v>
       </c>
@@ -9020,7 +9014,7 @@
         <v>0.71091666666666664</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.02158731056</v>
       </c>
@@ -9067,7 +9061,7 @@
         <v>0.69650000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.66822379525999998</v>
       </c>
@@ -9114,7 +9108,7 @@
         <v>0.68208333333333337</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.62586746538</v>
       </c>
@@ -9161,7 +9155,7 @@
         <v>0.66766666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.7068186538500001</v>
       </c>
@@ -9208,7 +9202,7 @@
         <v>0.65325</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.55814650177000014</v>
       </c>
@@ -9255,7 +9249,7 @@
         <v>0.63883333333333336</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>3.276009699599999</v>
       </c>
@@ -9302,7 +9296,7 @@
         <v>0.62441666666666662</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1.60699686026</v>
       </c>
@@ -9349,7 +9343,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.4785047380999998</v>
       </c>
@@ -9396,7 +9390,7 @@
         <v>0.61119999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.79988077058999996</v>
       </c>
@@ -9443,7 +9437,7 @@
         <v>0.61239999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.71672920005999985</v>
       </c>
@@ -9490,7 +9484,7 @@
         <v>0.61360000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.92920172036999971</v>
       </c>
@@ -9537,7 +9531,7 @@
         <v>0.61480000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.73718092605000018</v>
       </c>
@@ -9584,7 +9578,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.9201928195700001</v>
       </c>
@@ -9631,7 +9625,7 @@
         <v>0.61719999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1.00367069937</v>
       </c>
@@ -9678,7 +9672,7 @@
         <v>0.61839999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.74471987183999988</v>
       </c>
@@ -9725,7 +9719,7 @@
         <v>0.61960000000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.96585548245999975</v>
       </c>
@@ -9772,7 +9766,7 @@
         <v>0.62080000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.21910682331</v>
       </c>
@@ -9819,7 +9813,7 @@
         <v>0.622</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.0418890273900001</v>
       </c>
@@ -9866,7 +9860,7 @@
         <v>0.60880000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.68867208441000027</v>
       </c>
@@ -9913,7 +9907,7 @@
         <v>0.59560000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>3.5971997139299998</v>
       </c>
@@ -9960,7 +9954,7 @@
         <v>0.58240000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1.33819272925</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v>0.56920000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1.56425302499</v>
       </c>
@@ -10054,7 +10048,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.8208771001599999</v>
       </c>
@@ -10101,7 +10095,7 @@
         <v>0.54279999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5.77166436055</v>
       </c>
@@ -10148,7 +10142,7 @@
         <v>0.52959999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3.22292230526</v>
       </c>
@@ -10195,7 +10189,7 @@
         <v>0.51639999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>3.00908570622</v>
       </c>
@@ -10242,7 +10236,7 @@
         <v>0.50319999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>3.1015133911300001</v>
       </c>
@@ -10289,7 +10283,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>4.6243134274399997</v>
       </c>
@@ -10336,7 +10330,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5.1078902999999984</v>
       </c>
@@ -10383,7 +10377,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.710372966910001</v>
       </c>
@@ -10430,7 +10424,7 @@
         <v>0.43180000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2.7562029686499989</v>
       </c>
@@ -10477,7 +10471,7 @@
         <v>0.42320000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2.86320806736</v>
       </c>
@@ -10524,7 +10518,7 @@
         <v>0.41460000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5.3113908837899997</v>
       </c>
@@ -10571,7 +10565,7 @@
         <v>0.40600000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>4.5217292569099996</v>
       </c>
@@ -10618,7 +10612,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>4.1944572366299999</v>
       </c>
@@ -10665,7 +10659,7 @@
         <v>0.27725</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>3.1668714000000011</v>
       </c>
@@ -10712,7 +10706,7 @@
         <v>0.29649999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2.5069553697399991</v>
       </c>
@@ -10759,7 +10753,7 @@
         <v>0.31574999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>3.9299730419499999</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1.50122229773</v>
       </c>
@@ -10853,7 +10847,7 @@
         <v>0.32200000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>6.4280561719999989</v>
       </c>
@@ -10900,7 +10894,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2.6128559981600001</v>
       </c>
@@ -10947,7 +10941,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2.6129650032199998</v>
       </c>
@@ -10994,7 +10988,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2.3868313308000002</v>
       </c>
@@ -11041,7 +11035,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>3.8439536846700011</v>
       </c>
@@ -11088,7 +11082,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>3.538301680920001</v>
       </c>
@@ -11135,7 +11129,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>3.6910333</v>
       </c>
@@ -11182,7 +11176,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>3.3177745143499999</v>
       </c>
@@ -11229,7 +11223,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2.0663603781500002</v>
       </c>
@@ -11276,7 +11270,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>4.3423878763899992</v>
       </c>
@@ -11332,13 +11326,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B55EE6-9C37-4573-98AF-003329072971}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -11385,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.9230681440100001</v>
       </c>
@@ -11432,7 +11426,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.0668098265199999</v>
       </c>
@@ -11479,7 +11473,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.56448402378000007</v>
       </c>
@@ -11526,7 +11520,7 @@
         <v>0.96699999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.45465392799999998</v>
       </c>
@@ -11573,7 +11567,7 @@
         <v>0.9405</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.70221489476000021</v>
       </c>
@@ -11620,7 +11614,7 @@
         <v>0.91399999999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.91230823629999991</v>
       </c>
@@ -11667,7 +11661,7 @@
         <v>0.88749999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.0417094926499999</v>
       </c>
@@ -11714,7 +11708,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.42786214324999999</v>
       </c>
@@ -11761,7 +11755,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.39011483459000013</v>
       </c>
@@ -11808,7 +11802,7 @@
         <v>0.80074999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.48034081541000001</v>
       </c>
@@ -11855,7 +11849,7 @@
         <v>0.78049999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.39367011782</v>
       </c>
@@ -11902,7 +11896,7 @@
         <v>0.76024999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.39261503495000011</v>
       </c>
@@ -11949,7 +11943,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.34599348859000001</v>
       </c>
@@ -11996,7 +11990,7 @@
         <v>0.71974999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.43314652711000012</v>
       </c>
@@ -12043,7 +12037,7 @@
         <v>0.69950000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.35531311827000012</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>0.67924999999999991</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.12578729060999999</v>
       </c>
@@ -12137,7 +12131,7 @@
         <v>0.65899999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.17620801466</v>
       </c>
@@ -12184,7 +12178,7 @@
         <v>0.63874999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.26353002554999988</v>
       </c>
@@ -12231,7 +12225,7 @@
         <v>0.61849999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.24632767337000011</v>
       </c>
@@ -12278,7 +12272,7 @@
         <v>0.59824999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.25060620993999999</v>
       </c>
@@ -12325,7 +12319,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.4896220449</v>
       </c>
@@ -12372,7 +12366,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.43295569999999989</v>
       </c>
@@ -12419,7 +12413,7 @@
         <v>0.59799999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.39372360637999992</v>
       </c>
@@ -12466,7 +12460,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.43081796799999988</v>
       </c>
@@ -12513,7 +12507,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.38557362285000008</v>
       </c>
@@ -12560,7 +12554,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.6775478212199999</v>
       </c>
@@ -12607,7 +12601,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.62902142892</v>
       </c>
@@ -12654,7 +12648,7 @@
         <v>0.42249999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.61140804125999992</v>
       </c>
@@ -12701,7 +12695,7 @@
         <v>0.39800000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.66447909842</v>
       </c>
@@ -12748,7 +12742,7 @@
         <v>0.3735</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.9431331843999999</v>
       </c>
@@ -12795,7 +12789,7 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.96339491986</v>
       </c>
@@ -12842,7 +12836,7 @@
         <v>0.35339999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.7359692</v>
       </c>
@@ -12889,7 +12883,7 @@
         <v>0.35780000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.41976946690999978</v>
       </c>
@@ -12936,7 +12930,7 @@
         <v>0.36220000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2.0646656554099998</v>
       </c>
@@ -12983,7 +12977,7 @@
         <v>0.36659999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2.1123403034199999</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.34975927776</v>
       </c>
@@ -13077,7 +13071,7 @@
         <v>0.37090000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.5570074435700001</v>
       </c>
@@ -13124,7 +13118,7 @@
         <v>0.37080000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.7809781975300001</v>
       </c>
@@ -13171,7 +13165,7 @@
         <v>0.37069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.91322742309999994</v>
       </c>
@@ -13218,7 +13212,7 @@
         <v>0.37059999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.6836426094700001</v>
       </c>
@@ -13265,7 +13259,7 @@
         <v>0.3705</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.1796218379800001</v>
       </c>
@@ -13312,7 +13306,7 @@
         <v>0.37040000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.20370784196</v>
       </c>
@@ -13359,7 +13353,7 @@
         <v>0.37030000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.4324748441099999</v>
       </c>
@@ -13406,7 +13400,7 @@
         <v>0.37019999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.7510437000000001</v>
       </c>
@@ -13453,7 +13447,7 @@
         <v>0.37009999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.16936348108</v>
       </c>
@@ -13500,7 +13494,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>4.0816189561199989</v>
       </c>
@@ -13547,7 +13541,7 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.41782355482</v>
       </c>
@@ -13603,13 +13597,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34CA6F9-0A49-4A2B-A795-49FAB26B9A9C}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -13656,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.5368609711690011</v>
       </c>
@@ -13703,7 +13697,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.084403614555</v>
       </c>
@@ -13750,7 +13744,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.579730314972</v>
       </c>
@@ -13797,7 +13791,7 @@
         <v>1.0489999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.45801127450399992</v>
       </c>
@@ -13844,7 +13838,7 @@
         <v>1.0145</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.77203728476799971</v>
       </c>
@@ -13891,7 +13885,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.030768510705</v>
       </c>
@@ -13938,7 +13932,7 @@
         <v>0.94550000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.0962172620790001</v>
       </c>
@@ -13985,7 +13979,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.37798280523099992</v>
       </c>
@@ -14032,7 +14026,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.59075689708199997</v>
       </c>
@@ -14079,7 +14073,7 @@
         <v>0.8145</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.53847258165499989</v>
       </c>
@@ -14126,7 +14120,7 @@
         <v>0.79199999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.69352140849099975</v>
       </c>
@@ -14173,7 +14167,7 @@
         <v>0.76949999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.40035389999999998</v>
       </c>
@@ -14220,7 +14214,7 @@
         <v>0.747</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.34946559999999999</v>
       </c>
@@ -14267,7 +14261,7 @@
         <v>0.72449999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.42380661656999991</v>
       </c>
@@ -14314,7 +14308,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.29735938026399988</v>
       </c>
@@ -14361,7 +14355,7 @@
         <v>0.67949999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.14608556592800001</v>
       </c>
@@ -14408,7 +14402,7 @@
         <v>0.65699999999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.20117877557399999</v>
       </c>
@@ -14455,7 +14449,7 @@
         <v>0.63449999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.2482219</v>
       </c>
@@ -14502,7 +14496,7 @@
         <v>0.61199999999999988</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.25550938568299991</v>
       </c>
@@ -14549,7 +14543,7 @@
         <v>0.58949999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.32747694252199983</v>
       </c>
@@ -14596,7 +14590,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.52015945928500007</v>
       </c>
@@ -14643,7 +14637,7 @@
         <v>0.57874999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.35846367708999988</v>
       </c>
@@ -14690,7 +14684,7 @@
         <v>0.59050000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.38694477739700012</v>
       </c>
@@ -14737,7 +14731,7 @@
         <v>0.60224999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.40569171854600022</v>
       </c>
@@ -14784,7 +14778,7 @@
         <v>0.61399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.33588932542799999</v>
       </c>
@@ -14831,7 +14825,7 @@
         <v>0.42399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.505766819582</v>
       </c>
@@ -14878,7 +14872,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.2362534481659999</v>
       </c>
@@ -14925,7 +14919,7 @@
         <v>0.38524999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.186041655955</v>
       </c>
@@ -14972,7 +14966,7 @@
         <v>0.35449999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.1223075815800001</v>
       </c>
@@ -15019,7 +15013,7 @@
         <v>0.32374999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1.234826920126</v>
       </c>
@@ -15066,7 +15060,7 @@
         <v>0.29299999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1.4252696469470001</v>
       </c>
@@ -15113,7 +15107,7 @@
         <v>0.29620000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1.2109679294289999</v>
       </c>
@@ -15160,7 +15154,7 @@
         <v>0.2994</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.75829343570300012</v>
       </c>
@@ -15207,7 +15201,7 @@
         <v>0.30259999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.149207587589</v>
       </c>
@@ -15254,7 +15248,7 @@
         <v>0.30580000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1.358900541138</v>
       </c>
@@ -15301,7 +15295,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.320560371884</v>
       </c>
@@ -15348,7 +15342,7 @@
         <v>0.30909999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.1113403143060001</v>
       </c>
@@ -15395,7 +15389,7 @@
         <v>0.30919999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.0997337479260001</v>
       </c>
@@ -15442,7 +15436,7 @@
         <v>0.30930000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.1129237658469999</v>
       </c>
@@ -15489,7 +15483,7 @@
         <v>0.30940000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.29305554153</v>
       </c>
@@ -15536,7 +15530,7 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.3099858992869999</v>
       </c>
@@ -15583,7 +15577,7 @@
         <v>0.30959999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1.044715201804</v>
       </c>
@@ -15630,7 +15624,7 @@
         <v>0.30969999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.2373385902459999</v>
       </c>
@@ -15677,7 +15671,7 @@
         <v>0.30980000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.177742689427</v>
       </c>
@@ -15724,7 +15718,7 @@
         <v>0.30990000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.2186121756020001</v>
       </c>
@@ -15771,7 +15765,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.047805499051</v>
       </c>
@@ -15818,7 +15812,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.89618871560399993</v>
       </c>
@@ -15874,13 +15868,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788FE43D-8196-409D-A543-7D7AFE4019D3}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -15927,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.81489184599999986</v>
       </c>
@@ -15974,7 +15968,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.6582117999999999</v>
       </c>
@@ -16021,7 +16015,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.9133146499999998</v>
       </c>
@@ -16068,7 +16062,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.9797694900000009</v>
       </c>
@@ -16115,7 +16109,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.6156097199999999</v>
       </c>
@@ -16162,7 +16156,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.8990139800000001</v>
       </c>
@@ -16209,7 +16203,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.67812839000000003</v>
       </c>
@@ -16256,7 +16250,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.5084529999999989</v>
       </c>
@@ -16303,7 +16297,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.07798588</v>
       </c>
@@ -16350,7 +16344,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.747066639999999</v>
       </c>
@@ -16397,7 +16391,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4.0344180000000014</v>
       </c>
@@ -16444,7 +16438,7 @@
         <v>0.13766666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.0286189000000001</v>
       </c>
@@ -16491,7 +16485,7 @@
         <v>0.1313333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.2052468629999999</v>
       </c>
@@ -16538,7 +16532,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.5627438499999999</v>
       </c>
@@ -16585,7 +16579,7 @@
         <v>0.1186666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.266802569999999</v>
       </c>
@@ -16632,7 +16626,7 @@
         <v>0.1123333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.9021492999999992</v>
       </c>
@@ -16688,13 +16682,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D80AD6-DD7B-4E96-A87D-A71E78ACCAA8}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E41" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -16741,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.2020354842300001</v>
       </c>
@@ -16788,7 +16782,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.30694014276999992</v>
       </c>
@@ -16835,7 +16829,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.0151887405500002</v>
       </c>
@@ -16882,7 +16876,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.427214672819999</v>
       </c>
@@ -16929,7 +16923,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.7734548646900001</v>
       </c>
@@ -16976,7 +16970,7 @@
         <v>0.15766666666666659</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.0817004623700002</v>
       </c>
@@ -17023,7 +17017,7 @@
         <v>0.16733333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.676120148249999</v>
       </c>
@@ -17070,7 +17064,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.8968190536699989</v>
       </c>
@@ -17117,7 +17111,7 @@
         <v>0.18666666666666659</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.640519499999999</v>
       </c>
@@ -17164,7 +17158,7 @@
         <v>0.1963333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.9836467287799999</v>
       </c>
@@ -17211,7 +17205,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.13295475882</v>
       </c>
@@ -17258,7 +17252,7 @@
         <v>0.21566666666666659</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.9201333189500001</v>
       </c>
@@ -17305,7 +17299,7 @@
         <v>0.2253333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.9639653258000001</v>
       </c>
@@ -17352,7 +17346,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.7998296730000001</v>
       </c>
@@ -17399,7 +17393,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.956851651</v>
       </c>
@@ -17446,7 +17440,7 @@
         <v>0.27939999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.172735062000001</v>
       </c>
@@ -17493,7 +17487,7 @@
         <v>0.29980000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.98375894</v>
       </c>
@@ -17540,7 +17534,7 @@
         <v>0.32019999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.0900849100000001</v>
       </c>
@@ -17587,7 +17581,7 @@
         <v>0.34060000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.4870923439999999</v>
       </c>
@@ -17634,7 +17628,7 @@
         <v>0.36099999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.4134600180000001</v>
       </c>
@@ -17681,7 +17675,7 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.756742883</v>
       </c>
@@ -17728,7 +17722,7 @@
         <v>0.38779999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.1866582160000001</v>
       </c>
@@ -17775,7 +17769,7 @@
         <v>0.4012</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.2497808680000002</v>
       </c>
@@ -17822,7 +17816,7 @@
         <v>0.41460000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.4687467869999999</v>
       </c>
@@ -17869,7 +17863,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.784106422</v>
       </c>
@@ -17916,7 +17910,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.94849045</v>
       </c>
@@ -17963,7 +17957,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2.16833579</v>
       </c>
@@ -18010,7 +18004,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.8253649999999999</v>
       </c>
@@ -18057,7 +18051,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1.4705309799999999</v>
       </c>
@@ -18104,7 +18098,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.65393867199999978</v>
       </c>
@@ -18151,7 +18145,7 @@
         <v>0.47939999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.71794726200000003</v>
       </c>
@@ -18198,7 +18192,7 @@
         <v>0.49080000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.92406334599999995</v>
       </c>
@@ -18245,7 +18239,7 @@
         <v>0.50219999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.94794478500000012</v>
       </c>
@@ -18292,7 +18286,7 @@
         <v>0.51360000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1.95204263</v>
       </c>
@@ -18339,7 +18333,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2.099087260000001</v>
       </c>
@@ -18386,7 +18380,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1.7190799199999991</v>
       </c>
@@ -18433,7 +18427,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.69467099300000013</v>
       </c>
@@ -18480,7 +18474,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1.6675784199999999</v>
       </c>
@@ -18527,7 +18521,7 @@
         <v>0.56900000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1.270474699</v>
       </c>
@@ -18574,7 +18568,7 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.5830334699999999</v>
       </c>
@@ -18621,7 +18615,7 @@
         <v>0.59099999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.55112904899999982</v>
       </c>
@@ -18668,7 +18662,7 @@
         <v>0.60199999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.68621319109999979</v>
       </c>
@@ -18715,7 +18709,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.2609118157999999</v>
       </c>
@@ -18762,7 +18756,7 @@
         <v>0.624</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.4828135219999989</v>
       </c>
@@ -18809,7 +18803,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.702719452</v>
       </c>
@@ -18856,7 +18850,7 @@
         <v>0.64060000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.410361459999999</v>
       </c>
@@ -18903,7 +18897,7 @@
         <v>0.6462</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1.355495025</v>
       </c>
@@ -18950,7 +18944,7 @@
         <v>0.65180000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.23664336</v>
       </c>
@@ -18997,7 +18991,7 @@
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.6168555379999989</v>
       </c>
@@ -19044,7 +19038,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.5135710499999999</v>
       </c>
@@ -19091,7 +19085,7 @@
         <v>0.65339999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.9620833008999996</v>
       </c>
@@ -19138,7 +19132,7 @@
         <v>0.64380000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.39668196350000001</v>
       </c>
@@ -19185,7 +19179,7 @@
         <v>0.63419999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.39273927000000008</v>
       </c>
@@ -19232,7 +19226,7 @@
         <v>0.62460000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2.8364069700000001E-2</v>
       </c>
@@ -19279,7 +19273,7 @@
         <v>0.61499999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.2027527623</v>
       </c>
@@ -19326,7 +19320,7 @@
         <v>0.60539999999999994</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.28952092000000001</v>
       </c>
@@ -19373,7 +19367,7 @@
         <v>0.5958</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.64671064999999994</v>
       </c>
@@ -19420,7 +19414,7 @@
         <v>0.58619999999999994</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.112061049</v>
       </c>
@@ -19467,7 +19461,7 @@
         <v>0.5766</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.1603638350000001</v>
       </c>
@@ -19514,7 +19508,7 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1.2170143899999999</v>
       </c>
@@ -19561,7 +19555,7 @@
         <v>0.56899999999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.669067109</v>
       </c>
@@ -19608,7 +19602,7 @@
         <v>0.57099999999999995</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2.5467327499999999</v>
       </c>
@@ -19655,7 +19649,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1.3252703240000001</v>
       </c>
@@ -19702,7 +19696,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1.2000947420000001</v>
       </c>
@@ -19749,7 +19743,7 @@
         <v>0.57699999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2.0162965000000002</v>
       </c>
@@ -19796,7 +19790,7 @@
         <v>0.56209999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1.8545029500000001</v>
       </c>
@@ -19843,7 +19837,7 @@
         <v>0.54719999999999991</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1.17021263</v>
       </c>
@@ -19890,7 +19884,7 @@
         <v>0.5323</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.033262951</v>
       </c>
@@ -19937,7 +19931,7 @@
         <v>0.51739999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1.27723063</v>
       </c>
@@ -19984,7 +19978,7 @@
         <v>0.50249999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.98406584199999991</v>
       </c>
@@ -20031,7 +20025,7 @@
         <v>0.48759999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1.086556893</v>
       </c>
@@ -20078,7 +20072,7 @@
         <v>0.47270000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4.3929940000000094E-3</v>
       </c>
@@ -20125,7 +20119,7 @@
         <v>0.45779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.11611832599999999</v>
       </c>
@@ -20172,7 +20166,7 @@
         <v>0.44290000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.68622445500000018</v>
       </c>
@@ -20219,7 +20213,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1.8677114239999999</v>
       </c>
@@ -20266,7 +20260,7 @@
         <v>0.55900000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2.87136521</v>
       </c>
@@ -20313,7 +20307,7 @@
         <v>0.55780000000000007</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1.51566805603</v>
       </c>
@@ -20360,7 +20354,7 @@
         <v>0.55660000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1.5265079640000001</v>
       </c>
@@ -20407,7 +20401,7 @@
         <v>0.5554</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1.24550848</v>
       </c>
@@ -20454,7 +20448,7 @@
         <v>0.55420000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2.8422031699999999</v>
       </c>
@@ -20501,7 +20495,7 @@
         <v>0.55300000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1.5957115989999999</v>
       </c>
@@ -20548,7 +20542,7 @@
         <v>0.55180000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2.3689030856</v>
       </c>
@@ -20595,7 +20589,7 @@
         <v>0.55060000000000009</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2.6325186999999999</v>
       </c>
@@ -20642,7 +20636,7 @@
         <v>0.5494</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2.607146820000001</v>
       </c>
@@ -20689,7 +20683,7 @@
         <v>0.54820000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1.2344081</v>
       </c>
@@ -20736,7 +20730,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2.250557734</v>
       </c>
@@ -20783,7 +20777,7 @@
         <v>0.54580000000000006</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2.7650136999999999</v>
       </c>
@@ -20830,7 +20824,7 @@
         <v>0.54460000000000008</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2.8862667000000002</v>
       </c>
@@ -20877,7 +20871,7 @@
         <v>0.54339999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2.5010457000000001</v>
       </c>
@@ -20924,7 +20918,7 @@
         <v>0.54220000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>3.8175058000000002</v>
       </c>
@@ -20971,7 +20965,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1.26497539</v>
       </c>
@@ -21018,7 +21012,7 @@
         <v>0.55959999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.92035677099999991</v>
       </c>
@@ -21065,7 +21059,7 @@
         <v>0.57820000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.2444217289999999</v>
       </c>
@@ -21112,7 +21106,7 @@
         <v>0.5968</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>4.7344697499999988</v>
       </c>
@@ -21159,7 +21153,7 @@
         <v>0.61540000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>3.679819769999999</v>
       </c>
@@ -21206,7 +21200,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5.0787508900000002</v>
       </c>
@@ -21253,7 +21247,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1.1469590785999999</v>
       </c>
@@ -21309,13 +21303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90309C2A-E453-4E70-A174-7FF53E38A20D}">
   <dimension ref="A1:O381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -21362,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.2030975595520008</v>
       </c>
@@ -21409,7 +21403,7 @@
         <v>0.40300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.474892000000001</v>
       </c>
@@ -21456,7 +21450,7 @@
         <v>0.81899999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.30005528165200013</v>
       </c>
@@ -21503,7 +21497,7 @@
         <v>0.66800000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.4925334522179998</v>
       </c>
@@ -21550,7 +21544,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.2369495399610004</v>
       </c>
@@ -21597,7 +21591,7 @@
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.0282919081080002</v>
       </c>
@@ -21644,7 +21638,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.3872790846209999</v>
       </c>
@@ -21691,7 +21685,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.541425607878999</v>
       </c>
@@ -21738,7 +21732,7 @@
         <v>0.24399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.866756279883</v>
       </c>
@@ -21785,7 +21779,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.058894255847</v>
       </c>
@@ -21832,7 +21826,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2.245146807122</v>
       </c>
@@ -21879,7 +21873,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.56213016915</v>
       </c>
@@ -21926,7 +21920,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.116168712499999</v>
       </c>
@@ -21973,7 +21967,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.328085574038</v>
       </c>
@@ -22020,7 +22014,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.6311639594299989</v>
       </c>
@@ -22067,7 +22061,7 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.1226986987900001</v>
       </c>
@@ -22114,7 +22108,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.65296602875999998</v>
       </c>
@@ -22161,7 +22155,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.46378287803000001</v>
       </c>
@@ -22208,7 +22202,7 @@
         <v>0.99550000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.84928662600999982</v>
       </c>
@@ -22255,7 +22249,7 @@
         <v>0.96100000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.90376577702999961</v>
       </c>
@@ -22302,7 +22296,7 @@
         <v>0.92649999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.0326442380400001</v>
       </c>
@@ -22349,7 +22343,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.351590256313</v>
       </c>
@@ -22396,7 +22390,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.57122305374700022</v>
       </c>
@@ -22443,7 +22437,7 @@
         <v>0.82050000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.52951294037899999</v>
       </c>
@@ -22490,7 +22484,7 @@
         <v>0.79799999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.66019042127299976</v>
       </c>
@@ -22537,7 +22531,7 @@
         <v>0.77549999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.41805640000000022</v>
       </c>
@@ -22584,7 +22578,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.30116806072899999</v>
       </c>
@@ -22631,7 +22625,7 @@
         <v>0.73049999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.39872600000000008</v>
       </c>
@@ -22678,7 +22672,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.33309363128800012</v>
       </c>
@@ -22725,7 +22719,7 @@
         <v>0.6855</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.158736725297</v>
       </c>
@@ -22772,7 +22766,7 @@
         <v>0.66299999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.193461483849</v>
       </c>
@@ -22819,7 +22813,7 @@
         <v>0.64049999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.25053964999999989</v>
       </c>
@@ -22866,7 +22860,7 @@
         <v>0.61799999999999988</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.25781841765800012</v>
       </c>
@@ -22913,7 +22907,7 @@
         <v>0.59549999999999992</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.28481764103300011</v>
       </c>
@@ -22960,7 +22954,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.45197876014499999</v>
       </c>
@@ -23007,7 +23001,7 @@
         <v>0.58799999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.39543624207899991</v>
       </c>
@@ -23054,7 +23048,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.34497947581200011</v>
       </c>
@@ -23101,7 +23095,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.35834102752699998</v>
       </c>
@@ -23148,7 +23142,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.32439496669099999</v>
       </c>
@@ -23195,7 +23189,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1.5397780658410001</v>
       </c>
@@ -23242,7 +23236,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1.612200204046</v>
       </c>
@@ -23289,7 +23283,7 @@
         <v>0.41949999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>8.3603228173000019E-2</v>
       </c>
@@ -23336,7 +23330,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1.48181970073</v>
       </c>
@@ -23383,7 +23377,7 @@
         <v>0.35849999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1.602827446134</v>
       </c>
@@ -23430,7 +23424,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1.526033007823</v>
       </c>
@@ -23477,7 +23471,7 @@
         <v>0.33179999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1.236418738562</v>
       </c>
@@ -23524,7 +23518,7 @@
         <v>0.33560000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.30356832014700008</v>
       </c>
@@ -23571,7 +23565,7 @@
         <v>0.33939999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1.804362830576999</v>
       </c>
@@ -23618,7 +23612,7 @@
         <v>0.34320000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.6405258055930001</v>
       </c>
@@ -23665,7 +23659,7 @@
         <v>0.34699999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.016181182994</v>
       </c>
@@ -23712,7 +23706,7 @@
         <v>0.3468</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1.1095182113840001</v>
       </c>
@@ -23759,7 +23753,7 @@
         <v>0.34660000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1.292978957449</v>
       </c>
@@ -23806,7 +23800,7 @@
         <v>0.34639999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.68227471188999989</v>
       </c>
@@ -23853,7 +23847,7 @@
         <v>0.34620000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1.2485263</v>
       </c>
@@ -23900,7 +23894,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.92670049698799994</v>
       </c>
@@ -23947,7 +23941,7 @@
         <v>0.3458</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.94036432228499978</v>
       </c>
@@ -23994,7 +23988,7 @@
         <v>0.34560000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1.0621619462309999</v>
       </c>
@@ -24041,7 +24035,7 @@
         <v>0.34539999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1.2395910999999999</v>
       </c>
@@ -24088,7 +24082,7 @@
         <v>0.34520000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1.7527933456039999</v>
       </c>
@@ -24135,7 +24129,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1.479466903284</v>
       </c>
@@ -24182,7 +24176,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.35741053645800003</v>
       </c>
@@ -24229,7 +24223,7 @@
         <v>0.14199999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.33180545087699997</v>
       </c>
@@ -24276,7 +24270,7 @@
         <v>0.1845</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.50444627856200008</v>
       </c>
@@ -24323,7 +24317,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2.4738810349000011</v>
       </c>
@@ -24370,7 +24364,7 @@
         <v>0.66600000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2.4335305988</v>
       </c>
@@ -24417,7 +24411,7 @@
         <v>0.68510000000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2.4869462537000002</v>
       </c>
@@ -24464,7 +24458,7 @@
         <v>0.70420000000000005</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2.122469335199999</v>
       </c>
@@ -24511,7 +24505,7 @@
         <v>0.72330000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.7881887499</v>
       </c>
@@ -24558,7 +24552,7 @@
         <v>0.74240000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2.2033688258000002</v>
       </c>
@@ -24605,7 +24599,7 @@
         <v>0.76150000000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2.3131595556</v>
       </c>
@@ -24652,7 +24646,7 @@
         <v>0.78059999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.2286169999999998</v>
       </c>
@@ -24699,7 +24693,7 @@
         <v>0.79969999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2.161234145599999</v>
       </c>
@@ -24746,7 +24740,7 @@
         <v>0.81879999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2.7873001401000002</v>
       </c>
@@ -24793,7 +24787,7 @@
         <v>0.83789999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2.1127842353999999</v>
       </c>
@@ -24840,7 +24834,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2.3226253926</v>
       </c>
@@ -24887,7 +24881,7 @@
         <v>0.86270000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1.1634505597</v>
       </c>
@@ -24934,7 +24928,7 @@
         <v>0.86839999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2.063710861400001</v>
       </c>
@@ -24981,7 +24975,7 @@
         <v>0.87409999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1.3361700999999999</v>
       </c>
@@ -25028,7 +25022,7 @@
         <v>0.87980000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.94810602010000022</v>
       </c>
@@ -25075,7 +25069,7 @@
         <v>0.88549999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.80536242599999996</v>
       </c>
@@ -25122,7 +25116,7 @@
         <v>0.89119999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.65586954390000007</v>
       </c>
@@ -25169,7 +25163,7 @@
         <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.66006684679999983</v>
       </c>
@@ -25216,7 +25210,7 @@
         <v>0.90260000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1.8392215607</v>
       </c>
@@ -25263,7 +25257,7 @@
         <v>0.9083</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1.4044075069999999</v>
       </c>
@@ -25310,7 +25304,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1.7282312</v>
       </c>
@@ -25357,7 +25351,7 @@
         <v>0.92825000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.82172294509999977</v>
       </c>
@@ -25404,7 +25398,7 @@
         <v>0.9425</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1.3184284281999989</v>
       </c>
@@ -25451,7 +25445,7 @@
         <v>0.95674999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1.093071267</v>
       </c>
@@ -25498,7 +25492,7 @@
         <v>0.97100000000000009</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1.2832131844000001</v>
       </c>
@@ -25545,7 +25539,7 @@
         <v>0.98525000000000007</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1.6065897159</v>
       </c>
@@ -25592,7 +25586,7 @@
         <v>0.99950000000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2.2653239549999991</v>
       </c>
@@ -25639,7 +25633,7 @@
         <v>1.0137499999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1.7983633000999999</v>
       </c>
@@ -25686,7 +25680,7 @@
         <v>1.028</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.3290189178</v>
       </c>
@@ -25733,7 +25727,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1.1709852328000001</v>
       </c>
@@ -25780,7 +25774,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.91375449769999995</v>
       </c>
@@ -25827,7 +25821,7 @@
         <v>0.94839999999999991</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1.0805499492999999</v>
       </c>
@@ -25874,7 +25868,7 @@
         <v>0.94679999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1.1313383415</v>
       </c>
@@ -25921,7 +25915,7 @@
         <v>0.94519999999999993</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.61967980119999977</v>
       </c>
@@ -25968,7 +25962,7 @@
         <v>0.94359999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1.6026554539</v>
       </c>
@@ -26015,7 +26009,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1.3173942225999999</v>
       </c>
@@ -26062,7 +26056,7 @@
         <v>0.9562222222222222</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.66339572710000005</v>
       </c>
@@ -26109,7 +26103,7 @@
         <v>0.97044444444444444</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.49573530579999991</v>
       </c>
@@ -26156,7 +26150,7 @@
         <v>0.98466666666666669</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1.2117882981000001</v>
       </c>
@@ -26203,7 +26197,7 @@
         <v>0.99888888888888894</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0.89264699300000006</v>
       </c>
@@ -26250,7 +26244,7 @@
         <v>1.0131111111111111</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0.61999994269999981</v>
       </c>
@@ -26297,7 +26291,7 @@
         <v>1.027333333333333</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0.62366855770000007</v>
       </c>
@@ -26344,7 +26338,7 @@
         <v>1.041555555555556</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0.87661102459999962</v>
       </c>
@@ -26391,7 +26385,7 @@
         <v>1.0557777777777779</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0.87499681209999991</v>
       </c>
@@ -26438,7 +26432,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.78777190800000008</v>
       </c>
@@ -26485,7 +26479,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.80451796199999981</v>
       </c>
@@ -26532,7 +26526,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0.70174607999999983</v>
       </c>
@@ -26579,7 +26573,7 @@
         <v>0.77076923076923076</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0.66441706279999979</v>
       </c>
@@ -26626,7 +26620,7 @@
         <v>0.78353846153846152</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1.0192954668</v>
       </c>
@@ -26673,7 +26667,7 @@
         <v>0.79630769230769238</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2.160024739999999</v>
       </c>
@@ -26720,7 +26714,7 @@
         <v>0.80907692307692314</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1.3647397450000001</v>
       </c>
@@ -26767,7 +26761,7 @@
         <v>0.82184615384615389</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0.70520774000000019</v>
       </c>
@@ -26814,7 +26808,7 @@
         <v>0.83461538461538465</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0.73637968899999984</v>
       </c>
@@ -26861,7 +26855,7 @@
         <v>0.8473846153846154</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1.34515202</v>
       </c>
@@ -26908,7 +26902,7 @@
         <v>0.86015384615384616</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1.0174141400000001</v>
       </c>
@@ -26955,7 +26949,7 @@
         <v>0.87292307692307691</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1.0370412849999999</v>
       </c>
@@ -27002,7 +26996,7 @@
         <v>0.88569230769230778</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0.73584394200000003</v>
       </c>
@@ -27049,7 +27043,7 @@
         <v>0.89846153846153853</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1.3086095339999999</v>
       </c>
@@ -27096,7 +27090,7 @@
         <v>0.91123076923076929</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2.3222830080000012</v>
       </c>
@@ -27143,7 +27137,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2.9501708999999989</v>
       </c>
@@ -27190,7 +27184,7 @@
         <v>0.90858333333333341</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2.4620863300000009</v>
       </c>
@@ -27237,7 +27231,7 @@
         <v>0.89316666666666666</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1.052993464</v>
       </c>
@@ -27284,7 +27278,7 @@
         <v>0.87775000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0.76938934000000003</v>
       </c>
@@ -27331,7 +27325,7 @@
         <v>0.8623333333333334</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1.731643512</v>
       </c>
@@ -27378,7 +27372,7 @@
         <v>0.84691666666666665</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1.035881169</v>
       </c>
@@ -27425,7 +27419,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0.57618447399999995</v>
       </c>
@@ -27472,7 +27466,7 @@
         <v>0.81608333333333338</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1.685988582</v>
       </c>
@@ -27519,7 +27513,7 @@
         <v>0.80066666666666664</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1.55789081</v>
       </c>
@@ -27566,7 +27560,7 @@
         <v>0.78525</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1.049281852</v>
       </c>
@@ -27613,7 +27607,7 @@
         <v>0.76983333333333337</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>3.315026067999999</v>
       </c>
@@ -27660,7 +27654,7 @@
         <v>0.75441666666666674</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1.4805890660000001</v>
       </c>
@@ -27707,7 +27701,7 @@
         <v>0.73899999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2.2972041500000011</v>
       </c>
@@ -27754,7 +27748,7 @@
         <v>0.74029999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0.87939544899999988</v>
       </c>
@@ -27801,7 +27795,7 @@
         <v>0.74160000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.70776991590000005</v>
       </c>
@@ -27848,7 +27842,7 @@
         <v>0.7429</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.72891239489999982</v>
       </c>
@@ -27895,7 +27889,7 @@
         <v>0.74419999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0.61225793499999992</v>
       </c>
@@ -27942,7 +27936,7 @@
         <v>0.74550000000000005</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0.61929294499999987</v>
       </c>
@@ -27989,7 +27983,7 @@
         <v>0.74680000000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0.82631118490000011</v>
       </c>
@@ -28036,7 +28030,7 @@
         <v>0.74809999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0.62471533389999978</v>
       </c>
@@ -28083,7 +28077,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.93467472090000003</v>
       </c>
@@ -28130,7 +28124,7 @@
         <v>0.75070000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1.1635653449000001</v>
       </c>
@@ -28177,7 +28171,7 @@
         <v>0.752</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1.1624939969000001</v>
       </c>
@@ -28224,7 +28218,7 @@
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0.87298889599999985</v>
       </c>
@@ -28271,7 +28265,7 @@
         <v>0.72240000000000004</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>3.482706995</v>
       </c>
@@ -28318,7 +28312,7 @@
         <v>0.70760000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1.4500563049999999</v>
       </c>
@@ -28365,7 +28359,7 @@
         <v>0.69279999999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1.47738422</v>
       </c>
@@ -28412,7 +28406,7 @@
         <v>0.67799999999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2.9727118400000001</v>
       </c>
@@ -28459,7 +28453,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>6.3109487689999986</v>
       </c>
@@ -28506,7 +28500,7 @@
         <v>0.64839999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>3.4413595029999988</v>
       </c>
@@ -28553,7 +28547,7 @@
         <v>0.63359999999999994</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2.9014434000000011</v>
       </c>
@@ -28600,7 +28594,7 @@
         <v>0.61880000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2.520881259999999</v>
       </c>
@@ -28647,7 +28641,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>5.1842687400000003</v>
       </c>
@@ -28694,7 +28688,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>5.5990416000000014</v>
       </c>
@@ -28741,7 +28735,7 @@
         <v>0.53139999999999998</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1.8985489600000001</v>
       </c>
@@ -28788,7 +28782,7 @@
         <v>0.52280000000000004</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1.7672664899999999</v>
       </c>
@@ -28835,7 +28829,7 @@
         <v>0.51419999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>3.03314708</v>
       </c>
@@ -28882,7 +28876,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5.6819418600000002</v>
       </c>
@@ -28929,7 +28923,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>4.8980445000000019</v>
       </c>
@@ -28976,7 +28970,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>4.3117012000000017</v>
       </c>
@@ -29023,7 +29017,7 @@
         <v>0.35825000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2.883259100000001</v>
       </c>
@@ -29070,7 +29064,7 @@
         <v>0.3795</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2.13366079</v>
       </c>
@@ -29117,7 +29111,7 @@
         <v>0.40075</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>4.1747743699999997</v>
       </c>
@@ -29164,7 +29158,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1.61065156</v>
       </c>
@@ -29211,7 +29205,7 @@
         <v>0.40509090909090911</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>6.7920309600000008</v>
       </c>
@@ -29258,7 +29252,7 @@
         <v>0.38818181818181818</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2.731057180600001</v>
       </c>
@@ -29305,7 +29299,7 @@
         <v>0.37127272727272731</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2.3349232500000001</v>
       </c>
@@ -29352,7 +29346,7 @@
         <v>0.35436363636363633</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2.7049266699999999</v>
       </c>
@@ -29399,7 +29393,7 @@
         <v>0.33745454545454551</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>3.7666065500000001</v>
       </c>
@@ -29446,7 +29440,7 @@
         <v>0.32054545454545452</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>3.8266315299999998</v>
       </c>
@@ -29493,7 +29487,7 @@
         <v>0.30363636363636359</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>4.2989918999999999</v>
       </c>
@@ -29540,7 +29534,7 @@
         <v>0.28672727272727272</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>3.6576022199999998</v>
       </c>
@@ -29587,7 +29581,7 @@
         <v>0.26981818181818179</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2.3890308500000002</v>
       </c>
@@ -29634,7 +29628,7 @@
         <v>0.25290909090909092</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>5.1942230930000024</v>
       </c>
@@ -29681,7 +29675,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0.99928240000000013</v>
       </c>
@@ -29728,7 +29722,7 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1.10326214</v>
       </c>
@@ -29775,7 +29769,7 @@
         <v>0.17119999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>3.4914155299999998</v>
       </c>
@@ -29822,7 +29816,7 @@
         <v>0.1784</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2.133419889999999</v>
       </c>
@@ -29869,7 +29863,7 @@
         <v>0.18559999999999999</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1.507955159999999</v>
       </c>
@@ -29916,7 +29910,7 @@
         <v>0.1928</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1.3185588500000001</v>
       </c>
@@ -29963,7 +29957,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1.4790603</v>
       </c>
@@ -30010,7 +30004,7 @@
         <v>0.2195</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2.19920822</v>
       </c>
@@ -30057,7 +30051,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1.21684795</v>
       </c>
@@ -30104,7 +30098,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2.983136969999999</v>
       </c>
@@ -30151,7 +30145,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>3.5602975999999988</v>
       </c>
@@ -30198,7 +30192,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1.8353587</v>
       </c>
@@ -30245,7 +30239,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1.2086880099999999</v>
       </c>
@@ -30292,7 +30286,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1.5865236</v>
       </c>
@@ -30339,7 +30333,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1.97299582</v>
       </c>
@@ -30386,7 +30380,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>3.163593699999999</v>
       </c>
@@ -30433,7 +30427,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1.706023870000001</v>
       </c>
@@ -30480,7 +30474,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2.2357943599999999</v>
       </c>
@@ -30527,7 +30521,7 @@
         <v>0.27979999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2.41269964</v>
       </c>
@@ -30574,7 +30568,7 @@
         <v>0.30259999999999998</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2.25898719</v>
       </c>
@@ -30621,7 +30615,7 @@
         <v>0.32540000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1.175592</v>
       </c>
@@ -30668,7 +30662,7 @@
         <v>0.34820000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1.7903132470000001</v>
       </c>
@@ -30715,7 +30709,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1.2973165799999991</v>
       </c>
@@ -30762,7 +30756,7 @@
         <v>0.3846</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2.312980472</v>
       </c>
@@ -30809,7 +30803,7 @@
         <v>0.3982</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1.2421899000000001</v>
       </c>
@@ -30856,7 +30850,7 @@
         <v>0.4118</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>3.2991590799999999</v>
       </c>
@@ -30903,7 +30897,7 @@
         <v>0.4254</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1.799611914</v>
       </c>
@@ -30950,7 +30944,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2.3421260140000002</v>
       </c>
@@ -30997,7 +30991,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2.3354849631000012</v>
       </c>
@@ -31044,7 +31038,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>3.1744123000000002</v>
       </c>
@@ -31091,7 +31085,7 @@
         <v>0.46899999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2.6099909000000001</v>
       </c>
@@ -31138,7 +31132,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1.8311028</v>
       </c>
@@ -31185,7 +31179,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0.69535711999999994</v>
       </c>
@@ -31232,7 +31226,7 @@
         <v>0.50260000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2.165338409999999</v>
       </c>
@@ -31279,7 +31273,7 @@
         <v>0.51619999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2.6719533000000002</v>
       </c>
@@ -31326,7 +31320,7 @@
         <v>0.52980000000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2.0434008160000001</v>
       </c>
@@ -31373,7 +31367,7 @@
         <v>0.54339999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2.2364608499999998</v>
       </c>
@@ -31420,7 +31414,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2.4460526100000002</v>
       </c>
@@ -31467,7 +31461,7 @@
         <v>0.56960000000000011</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1.67618804</v>
       </c>
@@ -31514,7 +31508,7 @@
         <v>0.58220000000000005</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0.62799235499999984</v>
       </c>
@@ -31561,7 +31555,7 @@
         <v>0.5948</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1.74287719</v>
       </c>
@@ -31608,7 +31602,7 @@
         <v>0.60740000000000005</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1.4336762000000001</v>
       </c>
@@ -31655,7 +31649,7 @@
         <v>0.62000000000000011</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1.8648652999999999</v>
       </c>
@@ -31702,7 +31696,7 @@
         <v>0.63260000000000005</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0.55742821900000006</v>
       </c>
@@ -31749,7 +31743,7 @@
         <v>0.6452</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.61865954589999983</v>
       </c>
@@ -31796,7 +31790,7 @@
         <v>0.65780000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1.1560820199999999</v>
       </c>
@@ -31843,7 +31837,7 @@
         <v>0.67040000000000011</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1.2168661999999999</v>
       </c>
@@ -31890,7 +31884,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1.3796785380000001</v>
       </c>
@@ -31937,7 +31931,7 @@
         <v>0.68780000000000008</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1.349938922</v>
       </c>
@@ -31984,7 +31978,7 @@
         <v>0.69259999999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1.346478649</v>
       </c>
@@ -32031,7 +32025,7 @@
         <v>0.69740000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1.6054875399999999</v>
       </c>
@@ -32078,7 +32072,7 @@
         <v>0.70219999999999994</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1.9781396920000001</v>
       </c>
@@ -32125,7 +32119,7 @@
         <v>0.70699999999999996</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1.5738435</v>
       </c>
@@ -32172,7 +32166,7 @@
         <v>0.69839999999999991</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0.90758600499999997</v>
       </c>
@@ -32219,7 +32213,7 @@
         <v>0.68979999999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0.6267883660000001</v>
       </c>
@@ -32266,7 +32260,7 @@
         <v>0.68120000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0.41133237000000011</v>
       </c>
@@ -32313,7 +32307,7 @@
         <v>0.67259999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0.31596452759999999</v>
       </c>
@@ -32360,7 +32354,7 @@
         <v>0.66399999999999992</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0.19053390549999999</v>
       </c>
@@ -32407,7 +32401,7 @@
         <v>0.65539999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0.29658082299999988</v>
       </c>
@@ -32454,7 +32448,7 @@
         <v>0.64680000000000004</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0.66210488999999983</v>
       </c>
@@ -32501,7 +32495,7 @@
         <v>0.63819999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1.210243859</v>
       </c>
@@ -32548,7 +32542,7 @@
         <v>0.62959999999999994</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1.183576886</v>
       </c>
@@ -32595,7 +32589,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1.3801937719999999</v>
       </c>
@@ -32642,7 +32636,7 @@
         <v>0.62360000000000004</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1.792558946</v>
       </c>
@@ -32689,7 +32683,7 @@
         <v>0.62619999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2.9537917</v>
       </c>
@@ -32736,7 +32730,7 @@
         <v>0.62880000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1.3906965010000001</v>
       </c>
@@ -32783,7 +32777,7 @@
         <v>0.63139999999999996</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1.3828392190000001</v>
       </c>
@@ -32830,7 +32824,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2.3829609</v>
       </c>
@@ -32877,7 +32871,7 @@
         <v>0.62270000000000003</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2.2694386</v>
       </c>
@@ -32924,7 +32918,7 @@
         <v>0.61140000000000005</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.75267671999999985</v>
       </c>
@@ -32971,7 +32965,7 @@
         <v>0.60009999999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0.69214935400000011</v>
       </c>
@@ -33018,7 +33012,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1.4835359299999999</v>
       </c>
@@ -33065,7 +33059,7 @@
         <v>0.57750000000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.92044605000000013</v>
       </c>
@@ -33112,7 +33106,7 @@
         <v>0.56620000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1.1149794941</v>
       </c>
@@ -33159,7 +33153,7 @@
         <v>0.55490000000000006</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>7.2730608099999997E-2</v>
       </c>
@@ -33206,7 +33200,7 @@
         <v>0.54359999999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>6.5625028999999988E-2</v>
       </c>
@@ -33253,7 +33247,7 @@
         <v>0.5323</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.7069948748999999</v>
       </c>
@@ -33300,7 +33294,7 @@
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1.9484184136</v>
       </c>
@@ -33347,7 +33341,7 @@
         <v>0.68300000000000005</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>3.0464725000000001</v>
       </c>
@@ -33394,7 +33388,7 @@
         <v>0.68046666666666666</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1.4717504595999999</v>
       </c>
@@ -33441,7 +33435,7 @@
         <v>0.67793333333333339</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1.558308078</v>
       </c>
@@ -33488,7 +33482,7 @@
         <v>0.6754</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0.43680929699999982</v>
       </c>
@@ -33535,7 +33529,7 @@
         <v>0.67286666666666672</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2.50968379</v>
       </c>
@@ -33582,7 +33576,7 @@
         <v>0.67033333333333334</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1.784024297</v>
       </c>
@@ -33629,7 +33623,7 @@
         <v>0.66780000000000006</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2.7947012669999989</v>
       </c>
@@ -33676,7 +33670,7 @@
         <v>0.66526666666666667</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2.7933815000000002</v>
       </c>
@@ -33723,7 +33717,7 @@
         <v>0.6627333333333334</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2.5919525999999999</v>
       </c>
@@ -33770,7 +33764,7 @@
         <v>0.66020000000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1.3989800299999999</v>
       </c>
@@ -33817,7 +33811,7 @@
         <v>0.65766666666666673</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2.457848680000001</v>
       </c>
@@ -33864,7 +33858,7 @@
         <v>0.65513333333333335</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2.9119159800000012</v>
       </c>
@@ -33911,7 +33905,7 @@
         <v>0.65260000000000007</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>3.0537944000000001</v>
       </c>
@@ -33958,7 +33952,7 @@
         <v>0.65006666666666668</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2.819478999999999</v>
       </c>
@@ -34005,7 +33999,7 @@
         <v>0.64753333333333329</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>4.2693319999999986</v>
       </c>
@@ -34052,7 +34046,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1.5143010499999989</v>
       </c>
@@ -34099,7 +34093,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>0.84014385999999996</v>
       </c>
@@ -34146,7 +34140,7 @@
         <v>0.69300000000000006</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1.559248245</v>
       </c>
@@ -34193,7 +34187,7 @@
         <v>0.71700000000000008</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>5.1343014809999996</v>
       </c>
@@ -34240,7 +34234,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>4.1458057800000008</v>
       </c>
@@ -34287,7 +34281,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>5.2452989299999997</v>
       </c>
@@ -34334,7 +34328,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1.7696499326999999</v>
       </c>
@@ -34381,7 +34375,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>4.0873276700000014</v>
       </c>
@@ -34428,7 +34422,7 @@
         <v>0.29899999999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>4.0885781599999991</v>
       </c>
@@ -34475,7 +34469,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>3.811262109999999</v>
       </c>
@@ -34522,7 +34516,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>3.7120989099999999</v>
       </c>
@@ -34569,7 +34563,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>3.9129365100000011</v>
       </c>
@@ -34616,7 +34610,7 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>4.9402808399999998</v>
       </c>
@@ -34663,7 +34657,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>5.4334148200000003</v>
       </c>
@@ -34710,7 +34704,7 @@
         <v>0.50680000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>5.5797038999999984</v>
       </c>
@@ -34757,7 +34751,7 @@
         <v>0.52459999999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>4.7398155400000013</v>
       </c>
@@ -34804,7 +34798,7 @@
         <v>0.54239999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>4.157465339999999</v>
       </c>
@@ -34851,7 +34845,7 @@
         <v>0.56020000000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>3.2282899500000011</v>
       </c>
@@ -34898,7 +34892,7 @@
         <v>0.57800000000000007</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>2.4228627000000018</v>
       </c>
@@ -34945,7 +34939,7 @@
         <v>0.5958</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>4.9338385900000006</v>
       </c>
@@ -34992,7 +34986,7 @@
         <v>0.61360000000000003</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>4.4167854300000027</v>
       </c>
@@ -35039,7 +35033,7 @@
         <v>0.63139999999999996</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>3.2279227599999989</v>
       </c>
@@ -35086,7 +35080,7 @@
         <v>0.6492</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>2.6839632599999992</v>
       </c>
@@ -35133,7 +35127,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1.4737648799999989</v>
       </c>
@@ -35180,7 +35174,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1.7234657600000001</v>
       </c>
@@ -35227,7 +35221,7 @@
         <v>0.98100000000000009</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1.65773145</v>
       </c>
@@ -35274,7 +35268,7 @@
         <v>1.1040000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1.577835870000001</v>
       </c>
@@ -35321,7 +35315,7 @@
         <v>1.0166666666666671</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1.1010670300000001</v>
       </c>
@@ -35368,7 +35362,7 @@
         <v>0.92933333333333334</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1.65508593</v>
       </c>
@@ -35415,7 +35409,7 @@
         <v>0.84199999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.88710264299999986</v>
       </c>
@@ -35462,7 +35456,7 @@
         <v>1.0269999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0.64254490499999994</v>
       </c>
@@ -35509,7 +35503,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0.42342898099999993</v>
       </c>
@@ -35556,7 +35550,7 @@
         <v>0.60260000000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0.28652667900000001</v>
       </c>
@@ -35603,7 +35597,7 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0.42483255930000008</v>
       </c>
@@ -35650,7 +35644,7 @@
         <v>0.5978</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0.65848379800000023</v>
       </c>
@@ -35697,7 +35691,7 @@
         <v>0.59539999999999993</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0.69264111120000005</v>
       </c>
@@ -35744,7 +35738,7 @@
         <v>0.59299999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0.41898019383000001</v>
       </c>
@@ -35791,7 +35785,7 @@
         <v>0.58809999999999996</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0.47143129637199999</v>
       </c>
@@ -35838,7 +35832,7 @@
         <v>0.58319999999999994</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0.32627970500000009</v>
       </c>
@@ -35885,7 +35879,7 @@
         <v>0.57830000000000004</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0.37193463500000001</v>
       </c>
@@ -35932,7 +35926,7 @@
         <v>0.57340000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>0.49875344700000018</v>
       </c>
@@ -35979,7 +35973,7 @@
         <v>0.56850000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>0.23344540059999999</v>
       </c>
@@ -36026,7 +36020,7 @@
         <v>0.56359999999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>0.8797874590000001</v>
       </c>
@@ -36073,7 +36067,7 @@
         <v>0.55869999999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>0.69900110479999988</v>
       </c>
@@ -36120,7 +36114,7 @@
         <v>0.55380000000000007</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>0.98099480500000003</v>
       </c>
@@ -36167,7 +36161,7 @@
         <v>0.54890000000000005</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1.234900922999999</v>
       </c>
@@ -36214,7 +36208,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1.096626367</v>
       </c>
@@ -36261,7 +36255,7 @@
         <v>0.53680000000000005</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1.0124172899999999</v>
       </c>
@@ -36308,7 +36302,7 @@
         <v>0.52960000000000007</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1.25405313</v>
       </c>
@@ -36355,7 +36349,7 @@
         <v>0.52239999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>0.90421756599999992</v>
       </c>
@@ -36402,7 +36396,7 @@
         <v>0.51519999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>0.8856584839999998</v>
       </c>
@@ -36449,7 +36443,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1.0138743699999999</v>
       </c>
@@ -36496,7 +36490,7 @@
         <v>0.51560000000000006</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>0.98524960999999966</v>
       </c>
@@ -36543,7 +36537,7 @@
         <v>0.5232</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>0.77335762000000008</v>
       </c>
@@ -36590,7 +36584,7 @@
         <v>0.53080000000000005</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1.75827362</v>
       </c>
@@ -36637,7 +36631,7 @@
         <v>0.53839999999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1.3075200819999999</v>
       </c>
@@ -36684,7 +36678,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1.0059217499999999</v>
       </c>
@@ -36731,7 +36725,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1.6976150000000001</v>
       </c>
@@ -36778,7 +36772,7 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1.2397312599999999</v>
       </c>
@@ -36825,7 +36819,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1.1082816200000001</v>
       </c>
@@ -36872,7 +36866,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>0.71010363100000007</v>
       </c>
@@ -36919,7 +36913,7 @@
         <v>0.501</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>0.25805317499999991</v>
       </c>
@@ -36966,7 +36960,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1.003483696</v>
       </c>
@@ -37013,7 +37007,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>0.47994485100000001</v>
       </c>
@@ -37060,7 +37054,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>0.80072875100000007</v>
       </c>
@@ -37107,7 +37101,7 @@
         <v>0.46500000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1.1205196319999999</v>
       </c>
@@ -37154,7 +37148,7 @@
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1.180570015999999</v>
       </c>
@@ -37201,7 +37195,7 @@
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1.2485807579999999</v>
       </c>
@@ -37248,7 +37242,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1.1924034619999999</v>
       </c>
@@ -37295,7 +37289,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>0.83460264900000003</v>
       </c>
@@ -37342,7 +37336,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1.6166565399999999</v>
       </c>
@@ -37389,7 +37383,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>2.2587881190000001</v>
       </c>
@@ -37436,7 +37430,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>2.1599127580000008</v>
       </c>
@@ -37483,7 +37477,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>2.23193047</v>
       </c>
@@ -37530,7 +37524,7 @@
         <v>0.37446666666666673</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>2.4476826999999992</v>
       </c>
@@ -37577,7 +37571,7 @@
         <v>0.37893333333333329</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>2.3751202619999998</v>
       </c>
@@ -37624,7 +37618,7 @@
         <v>0.38340000000000002</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>2.7695484600000002</v>
       </c>
@@ -37671,7 +37665,7 @@
         <v>0.38786666666666658</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>2.317729414</v>
       </c>
@@ -37718,7 +37712,7 @@
         <v>0.39233333333333331</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1.9644360005999999</v>
       </c>
@@ -37765,7 +37759,7 @@
         <v>0.39679999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>2.0391769484000002</v>
       </c>
@@ -37812,7 +37806,7 @@
         <v>0.40126666666666672</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>2.851500522999999</v>
       </c>
@@ -37859,7 +37853,7 @@
         <v>0.40573333333333328</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>2.9603485599999999</v>
       </c>
@@ -37906,7 +37900,7 @@
         <v>0.41020000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>0.97215632999999957</v>
       </c>
@@ -37953,7 +37947,7 @@
         <v>0.41466666666666668</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>2.3612470499999989</v>
       </c>
@@ -38000,7 +37994,7 @@
         <v>0.41913333333333341</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>3.2534786000000002</v>
       </c>
@@ -38047,7 +38041,7 @@
         <v>0.42359999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>2.260972352</v>
       </c>
@@ -38094,7 +38088,7 @@
         <v>0.42806666666666671</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>2.005927872</v>
       </c>
@@ -38141,7 +38135,7 @@
         <v>0.43253333333333333</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>2.1859143725000001</v>
       </c>
@@ -38188,7 +38182,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>4.6228783000000009</v>
       </c>
@@ -38235,7 +38229,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>3.6515184000000001</v>
       </c>
@@ -38282,7 +38276,7 @@
         <v>0.2777</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>3.9903522799999989</v>
       </c>
@@ -38329,7 +38323,7 @@
         <v>0.27039999999999997</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>3.529984349999999</v>
       </c>
@@ -38376,7 +38370,7 @@
         <v>0.2631</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>3.6290409700000001</v>
       </c>
@@ -38423,7 +38417,7 @@
         <v>0.25580000000000003</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>3.9762180200000001</v>
       </c>
@@ -38470,7 +38464,7 @@
         <v>0.2485</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>3.4147443599999989</v>
       </c>
@@ -38517,7 +38511,7 @@
         <v>0.2412</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>2.4794873399999999</v>
       </c>
@@ -38564,7 +38558,7 @@
         <v>0.2339</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>2.76055267</v>
       </c>
@@ -38611,7 +38605,7 @@
         <v>0.2266</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>2.2988335100000001</v>
       </c>
@@ -38658,7 +38652,7 @@
         <v>0.21929999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>2.280104629999999</v>
       </c>
@@ -38705,7 +38699,7 @@
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>2.4872559999999999</v>
       </c>
@@ -38752,7 +38746,7 @@
         <v>0.21587500000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>2.8663362399999999</v>
       </c>
@@ -38799,7 +38793,7 @@
         <v>0.21975</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>1.692458279999999</v>
       </c>
@@ -38846,7 +38840,7 @@
         <v>0.22362499999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>1.34507683</v>
       </c>
@@ -38893,7 +38887,7 @@
         <v>0.22750000000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>1.32037217</v>
       </c>
@@ -38940,7 +38934,7 @@
         <v>0.231375</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>2.0741431600000002</v>
       </c>
@@ -38987,7 +38981,7 @@
         <v>0.23524999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>5.1294267600000003</v>
       </c>
@@ -39034,7 +39028,7 @@
         <v>0.239125</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>4.0592412849999979</v>
       </c>
@@ -39081,7 +39075,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>3.2979647999999999</v>
       </c>
@@ -39128,7 +39122,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>2.1998447800000012</v>
       </c>
@@ -39175,7 +39169,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1.91826115</v>
       </c>
@@ -39228,6 +39222,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD4C9435717F934D9BFA3CC81A02E2D3" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00aa04be3669a69742168459007643be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="22723d5e-595f-467b-a177-23fc86dcfa99" xmlns:ns3="e8f517e9-29a8-4614-9797-c782dc47c901" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="00a8991e43b4ea4dd969ebe3a64abda0" ns2:_="" ns3:_="">
     <xsd:import namespace="22723d5e-595f-467b-a177-23fc86dcfa99"/>
@@ -39404,29 +39413,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32D882C3-BE62-472C-A40D-03E6DC2C10F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51FAD61-0F99-4C9B-821E-B6077F411709}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97F8971-D328-4465-8C26-33C4833D08E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97F8971-D328-4465-8C26-33C4833D08E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51FAD61-0F99-4C9B-821E-B6077F411709}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32D882C3-BE62-472C-A40D-03E6DC2C10F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22723d5e-595f-467b-a177-23fc86dcfa99"/>
+    <ds:schemaRef ds:uri="e8f517e9-29a8-4614-9797-c782dc47c901"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>